--- a/files/Analysis_MA1/_Analysis_MA1_activity.xlsx
+++ b/files/Analysis_MA1/_Analysis_MA1_activity.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="activity_phase" sheetId="1" r:id="rId1"/>
     <sheet name="activity_pattern" sheetId="2" r:id="rId2"/>
+    <sheet name="active_count" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -17373,4 +17374,848 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>fly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Night_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Night_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Night_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Day_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Day_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fly_01</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>4.224137931034483</v>
+      </c>
+      <c r="C2">
+        <v>1.741935483870968</v>
+      </c>
+      <c r="D2">
+        <v>2.117647058823529</v>
+      </c>
+      <c r="E2">
+        <v>2.438144329896907</v>
+      </c>
+      <c r="F2">
+        <v>2.70952380952381</v>
+      </c>
+      <c r="G2">
+        <v>2.533333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fly_02</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="C3">
+        <v>3.1875</v>
+      </c>
+      <c r="E3">
+        <v>4.354330708661418</v>
+      </c>
+      <c r="F3">
+        <v>6.026315789473684</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fly_03</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>4.293577981651376</v>
+      </c>
+      <c r="C4">
+        <v>3.369565217391304</v>
+      </c>
+      <c r="D4">
+        <v>1.63768115942029</v>
+      </c>
+      <c r="E4">
+        <v>4.892430278884462</v>
+      </c>
+      <c r="F4">
+        <v>3.502347417840376</v>
+      </c>
+      <c r="G4">
+        <v>3.254054054054054</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fly_04</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>2.576271186440678</v>
+      </c>
+      <c r="C5">
+        <v>1.959016393442623</v>
+      </c>
+      <c r="D5">
+        <v>2.08695652173913</v>
+      </c>
+      <c r="E5">
+        <v>2.81304347826087</v>
+      </c>
+      <c r="F5">
+        <v>2.432291666666667</v>
+      </c>
+      <c r="G5">
+        <v>2.732142857142857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fly_05</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1.162790697674419</v>
+      </c>
+      <c r="C6">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="D6">
+        <v>1.83495145631068</v>
+      </c>
+      <c r="E6">
+        <v>3.206081081081081</v>
+      </c>
+      <c r="F6">
+        <v>2.943462897526502</v>
+      </c>
+      <c r="G6">
+        <v>2.47787610619469</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fly_06</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>2.375</v>
+      </c>
+      <c r="C7">
+        <v>1.675</v>
+      </c>
+      <c r="D7">
+        <v>1.553191489361702</v>
+      </c>
+      <c r="E7">
+        <v>2.545977011494253</v>
+      </c>
+      <c r="F7">
+        <v>2.225806451612903</v>
+      </c>
+      <c r="G7">
+        <v>3.160305343511451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fly_07</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>2.169491525423729</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+      <c r="D8">
+        <v>1.509090909090909</v>
+      </c>
+      <c r="E8">
+        <v>2.539325842696629</v>
+      </c>
+      <c r="F8">
+        <v>2.48125</v>
+      </c>
+      <c r="G8">
+        <v>2.273684210526316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fly_08</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>1.763157894736842</v>
+      </c>
+      <c r="C9">
+        <v>1.424242424242424</v>
+      </c>
+      <c r="D9">
+        <v>1.6625</v>
+      </c>
+      <c r="E9">
+        <v>2.388535031847134</v>
+      </c>
+      <c r="F9">
+        <v>2.492063492063492</v>
+      </c>
+      <c r="G9">
+        <v>2.593984962406015</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>fly_09</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>3.6875</v>
+      </c>
+      <c r="C10">
+        <v>2.642857142857143</v>
+      </c>
+      <c r="D10">
+        <v>3.75</v>
+      </c>
+      <c r="E10">
+        <v>2.51948051948052</v>
+      </c>
+      <c r="F10">
+        <v>2.173076923076923</v>
+      </c>
+      <c r="G10">
+        <v>2.059171597633136</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fly_10</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>2.623376623376624</v>
+      </c>
+      <c r="C11">
+        <v>1.576923076923077</v>
+      </c>
+      <c r="D11">
+        <v>1.757575757575758</v>
+      </c>
+      <c r="E11">
+        <v>2.675126903553299</v>
+      </c>
+      <c r="F11">
+        <v>2.451219512195122</v>
+      </c>
+      <c r="G11">
+        <v>2.417721518987342</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>fly_11</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>2.212121212121212</v>
+      </c>
+      <c r="C12">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="D12">
+        <v>2.150943396226415</v>
+      </c>
+      <c r="E12">
+        <v>2.788690476190476</v>
+      </c>
+      <c r="F12">
+        <v>2.435606060606061</v>
+      </c>
+      <c r="G12">
+        <v>2.673684210526316</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>fly_12</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>3.932203389830509</v>
+      </c>
+      <c r="C13">
+        <v>1.775510204081633</v>
+      </c>
+      <c r="D13">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="E13">
+        <v>3.444444444444445</v>
+      </c>
+      <c r="F13">
+        <v>3.098684210526316</v>
+      </c>
+      <c r="G13">
+        <v>3.472222222222222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fly_13</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="C14">
+        <v>1.3125</v>
+      </c>
+      <c r="D14">
+        <v>1.30952380952381</v>
+      </c>
+      <c r="E14">
+        <v>3.535836177474403</v>
+      </c>
+      <c r="F14">
+        <v>2.800813008130081</v>
+      </c>
+      <c r="G14">
+        <v>2.748792270531401</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fly_14</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1.658227848101266</v>
+      </c>
+      <c r="C15">
+        <v>1.52112676056338</v>
+      </c>
+      <c r="D15">
+        <v>1.462686567164179</v>
+      </c>
+      <c r="E15">
+        <v>2.738675958188154</v>
+      </c>
+      <c r="F15">
+        <v>2.637614678899082</v>
+      </c>
+      <c r="G15">
+        <v>2.463636363636364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fly_15</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>1.484848484848485</v>
+      </c>
+      <c r="C16">
+        <v>1.35</v>
+      </c>
+      <c r="D16">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="E16">
+        <v>3.801324503311258</v>
+      </c>
+      <c r="F16">
+        <v>3.257142857142857</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>fly_16</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>2.368421052631579</v>
+      </c>
+      <c r="C17">
+        <v>2.067567567567568</v>
+      </c>
+      <c r="D17">
+        <v>1.909090909090909</v>
+      </c>
+      <c r="E17">
+        <v>4.141025641025641</v>
+      </c>
+      <c r="F17">
+        <v>3.76530612244898</v>
+      </c>
+      <c r="G17">
+        <v>3.551724137931035</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fly_17</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>1.34375</v>
+      </c>
+      <c r="C18">
+        <v>2.329896907216495</v>
+      </c>
+      <c r="D18">
+        <v>1.621359223300971</v>
+      </c>
+      <c r="E18">
+        <v>3.079497907949791</v>
+      </c>
+      <c r="F18">
+        <v>2.880382775119617</v>
+      </c>
+      <c r="G18">
+        <v>2.492063492063492</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fly_18</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>1.621621621621622</v>
+      </c>
+      <c r="C19">
+        <v>2.090909090909091</v>
+      </c>
+      <c r="D19">
+        <v>1.313432835820896</v>
+      </c>
+      <c r="E19">
+        <v>2.78448275862069</v>
+      </c>
+      <c r="F19">
+        <v>2.532934131736527</v>
+      </c>
+      <c r="G19">
+        <v>2.305555555555555</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fly_19</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>1.478260869565217</v>
+      </c>
+      <c r="C20">
+        <v>2.071428571428572</v>
+      </c>
+      <c r="D20">
+        <v>2.11864406779661</v>
+      </c>
+      <c r="E20">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F20">
+        <v>3.690140845070423</v>
+      </c>
+      <c r="G20">
+        <v>3.504854368932039</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>fly_20</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>1.737373737373738</v>
+      </c>
+      <c r="C21">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="D21">
+        <v>1.585858585858586</v>
+      </c>
+      <c r="E21">
+        <v>2.470779220779221</v>
+      </c>
+      <c r="F21">
+        <v>2.039525691699605</v>
+      </c>
+      <c r="G21">
+        <v>2.125506072874494</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fly_21</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>2.162162162162162</v>
+      </c>
+      <c r="C22">
+        <v>1.326923076923077</v>
+      </c>
+      <c r="D22">
+        <v>1.617647058823529</v>
+      </c>
+      <c r="E22">
+        <v>3.1484375</v>
+      </c>
+      <c r="F22">
+        <v>2.527918781725888</v>
+      </c>
+      <c r="G22">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fly_22</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>1.805825242718447</v>
+      </c>
+      <c r="C23">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D23">
+        <v>1.63302752293578</v>
+      </c>
+      <c r="E23">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="F23">
+        <v>2.299539170506912</v>
+      </c>
+      <c r="G23">
+        <v>1.872222222222222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>fly_23</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>2.197530864197531</v>
+      </c>
+      <c r="C24">
+        <v>1.208333333333333</v>
+      </c>
+      <c r="D24">
+        <v>1.346153846153846</v>
+      </c>
+      <c r="E24">
+        <v>4.355498721227622</v>
+      </c>
+      <c r="F24">
+        <v>3.289156626506024</v>
+      </c>
+      <c r="G24">
+        <v>2.752380952380952</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>fly_24</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>2.219047619047619</v>
+      </c>
+      <c r="C25">
+        <v>2.016260162601626</v>
+      </c>
+      <c r="D25">
+        <v>1.982758620689655</v>
+      </c>
+      <c r="E25">
+        <v>2.39344262295082</v>
+      </c>
+      <c r="F25">
+        <v>2.327272727272727</v>
+      </c>
+      <c r="G25">
+        <v>2.276595744680851</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fly_25</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>3.037037037037037</v>
+      </c>
+      <c r="C26">
+        <v>1.708333333333333</v>
+      </c>
+      <c r="D26">
+        <v>1.432432432432433</v>
+      </c>
+      <c r="E26">
+        <v>2.662068965517241</v>
+      </c>
+      <c r="F26">
+        <v>2.32484076433121</v>
+      </c>
+      <c r="G26">
+        <v>2.435114503816794</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fly_26</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>4.516129032258065</v>
+      </c>
+      <c r="C27">
+        <v>3.310344827586207</v>
+      </c>
+      <c r="D27">
+        <v>1.346153846153846</v>
+      </c>
+      <c r="E27">
+        <v>3.197368421052631</v>
+      </c>
+      <c r="F27">
+        <v>3.402298850574713</v>
+      </c>
+      <c r="G27">
+        <v>2.635714285714286</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fly_27</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="C28">
+        <v>1.642857142857143</v>
+      </c>
+      <c r="D28">
+        <v>1.361111111111111</v>
+      </c>
+      <c r="E28">
+        <v>3.846590909090909</v>
+      </c>
+      <c r="F28">
+        <v>3.617647058823529</v>
+      </c>
+      <c r="G28">
+        <v>3.337349397590362</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>fly_28</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>2.27027027027027</v>
+      </c>
+      <c r="C29">
+        <v>4.25</v>
+      </c>
+      <c r="D29">
+        <v>7.461538461538462</v>
+      </c>
+      <c r="E29">
+        <v>4.956521739130435</v>
+      </c>
+      <c r="F29">
+        <v>7.157360406091371</v>
+      </c>
+      <c r="G29">
+        <v>7.084444444444444</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fly_29</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>3.4</v>
+      </c>
+      <c r="C30">
+        <v>1.375</v>
+      </c>
+      <c r="D30">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="E30">
+        <v>3.275</v>
+      </c>
+      <c r="F30">
+        <v>2.4375</v>
+      </c>
+      <c r="G30">
+        <v>1.191489361702128</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fly_30</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>1.796296296296296</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="E31">
+        <v>2.39622641509434</v>
+      </c>
+      <c r="F31">
+        <v>2.527881040892194</v>
+      </c>
+      <c r="G31">
+        <v>2.47085201793722</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fly_31</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>2.816666666666667</v>
+      </c>
+      <c r="C32">
+        <v>1.186046511627907</v>
+      </c>
+      <c r="D32">
+        <v>1.195121951219512</v>
+      </c>
+      <c r="E32">
+        <v>2.573684210526316</v>
+      </c>
+      <c r="F32">
+        <v>2.727272727272727</v>
+      </c>
+      <c r="G32">
+        <v>2.348148148148148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fly_32</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>3.783333333333333</v>
+      </c>
+      <c r="C33">
+        <v>1.569230769230769</v>
+      </c>
+      <c r="D33">
+        <v>1.7625</v>
+      </c>
+      <c r="E33">
+        <v>2.67741935483871</v>
+      </c>
+      <c r="F33">
+        <v>2.227722772277228</v>
+      </c>
+      <c r="G33">
+        <v>3.283783783783784</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>